--- a/TestData/TMTI0075756_75765_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
+++ b/TestData/TMTI0075756_75765_EventExpense_EmailNotification_RequestMoreInformationApproveAsFirstLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36B2DCB-98FB-467E-982F-96E36D8A6E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4E6F55-B98C-4928-9C66-5510BF8B9FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Alan Test</t>
   </si>
   <si>
-    <t>Bingo@1234</t>
-  </si>
-  <si>
     <t>CAPE</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>kspero@hl.com.test</t>
+  </si>
+  <si>
+    <t>Bingo@123456</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -581,7 +581,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -637,7 +637,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +709,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -731,10 +731,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{7371369A-4B2D-4AF3-85E2-CC889955F8F9}"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{F5167E44-EE84-48EC-B6E8-69243B861AB5}"/>
-    <hyperlink ref="A2" r:id="rId3" tooltip="mailto:kspero@hl.com.test" display="mailto:kspero@hl.com.test" xr:uid="{D9C78D91-C519-47A3-80B2-C808030C1CD6}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{873F882F-38ED-48DD-8BEC-C4D6749440FB}"/>
+    <hyperlink ref="A3" r:id="rId1" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{F5167E44-EE84-48EC-B6E8-69243B861AB5}"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="mailto:kspero@hl.com.test" display="mailto:kspero@hl.com.test" xr:uid="{D9C78D91-C519-47A3-80B2-C808030C1CD6}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{873F882F-38ED-48DD-8BEC-C4D6749440FB}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{2D0A72A9-1B1C-4CD5-944C-33006FE81F8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
